--- a/data/testcase/articlePage.xlsx
+++ b/data/testcase/articlePage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9924" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="testCase" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>用例编号</t>
   </si>
@@ -24,18 +24,12 @@
     <t>用例描述</t>
   </si>
   <si>
-    <t>执行结果</t>
-  </si>
-  <si>
     <t>articlePage_01</t>
   </si>
   <si>
     <t>发布评论流程</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>步骤编号</t>
   </si>
   <si>
@@ -48,15 +42,6 @@
     <t>元素名称</t>
   </si>
   <si>
-    <t>输入数据</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>步骤截图</t>
-  </si>
-  <si>
     <t>s_001</t>
   </si>
   <si>
@@ -69,9 +54,6 @@
     <t>commentBut</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>s_002</t>
   </si>
   <si>
@@ -84,9 +66,6 @@
     <t>commentInput</t>
   </si>
   <si>
-    <t>文章写的真精彩！</t>
-  </si>
-  <si>
     <t>s_003</t>
   </si>
   <si>
@@ -106,12 +85,6 @@
   </si>
   <si>
     <t>toastMsg</t>
-  </si>
-  <si>
-    <t>评论成功</t>
-  </si>
-  <si>
-    <t>截图</t>
   </si>
   <si>
     <t>描述</t>
@@ -155,13 +128,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
+  <fonts count="23">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -183,23 +164,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,31 +195,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +212,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +241,28 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -267,16 +270,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,44 +303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,56 +508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -598,8 +529,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +579,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,142 +628,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1131,39 +1115,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.5583333333333" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.4416666666667" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="20.5555555555556" customWidth="1"/>
+    <col min="3" max="3" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1179,144 +1157,112 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
   <cols>
+    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="12.8833333333333" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="17.1333333333333" customWidth="1"/>
-    <col min="7" max="8" width="8.88333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="10.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="17.1296296296296" customWidth="1"/>
+    <col min="7" max="8" width="8.87962962962963" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="F3"/>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" ht="15" spans="1:9">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" display="截图"/>
-  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1329,82 +1275,82 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="2" max="2" width="12.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="8.87962962962963" customWidth="1"/>
+    <col min="4" max="4" width="40.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
